--- a/xlsx/好莱坞大道_intext.xlsx
+++ b/xlsx/好莱坞大道_intext.xlsx
@@ -15,273 +15,279 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="91">
   <si>
     <t>好莱坞大道</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%BD%E8%90%8A%E5%A1%A2%E5%A4%A7%E9%81%93</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E9%87%8C%E6%B4%BB%E9%81%93</t>
+  </si>
+  <si>
+    <t>荷里活道</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_好莱坞大道</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%8F%B2%E8%B9%9F%E5%90%8D%E9%8C%84</t>
+  </si>
+  <si>
+    <t>国家史蹟名录</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%AD%B7%E5%8F%B2%E5%8D%80</t>
+  </si>
+  <si>
+    <t>美国历史区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9F%AF%E8%BE%BE%E6%88%8F%E9%99%A2</t>
+  </si>
+  <si>
+    <t>柯达戏院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%9F%B6</t>
+  </si>
+  <si>
+    <t>洛杉矶</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E5%9D%90%E6%A0%87</t>
+  </si>
+  <si>
+    <t>地理坐标</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%96%87</t>
+  </si>
+  <si>
+    <t>英文</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%BD%E8%8E%B1%E5%9D%9E</t>
+  </si>
+  <si>
+    <t>好莱坞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E8%90%BD%E5%A4%A7%E9%81%93</t>
+  </si>
+  <si>
+    <t>日落大道</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Vermont_Avenue</t>
+  </si>
+  <si>
+    <t>en-Vermont Avenue</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%BD%E8%8E%B1%E5%9D%9E%E6%98%9F%E5%85%89%E5%A4%A7%E9%81%93</t>
+  </si>
+  <si>
+    <t>好莱坞星光大道</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E5%B0%8F%E9%BE%99</t>
+  </si>
+  <si>
+    <t>李小龙</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%88%90%E9%BE%99</t>
+  </si>
+  <si>
+    <t>成龙</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%A1%E6%9D%91%E9%9F%B3%E4%B9%90</t>
+  </si>
+  <si>
+    <t>乡村音乐</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%91%C2%B7%E5%A5%A7%E5%B4%94</t>
+  </si>
+  <si>
+    <t>金·奥崔</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Hollywood_Christmas_Parade</t>
+  </si>
+  <si>
+    <t>en-Hollywood Christmas Parade</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Oakley_Haldeman</t>
+  </si>
+  <si>
+    <t>en-Oakley Haldeman</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Here_Comes_Santa_Claus</t>
+  </si>
+  <si>
+    <t>en-Here Comes Santa Claus</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%A3%AF%E6%8D%B7%E9%81%8B</t>
+  </si>
+  <si>
+    <t>洛杉矶捷运</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A3%8E%E6%9C%88%E4%BF%8F%E4%BD%B3%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>风月俏佳人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E5%AF%9F%C2%B7%E5%9F%BA%E7%88%BE</t>
+  </si>
+  <si>
+    <t>李察·基尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8C%B1%E8%8E%89%E4%BA%9E%C2%B7%E7%BE%85%E6%8B%94%E7%B5%B2</t>
+  </si>
+  <si>
+    <t>茱莉亚·罗拔丝</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A1%97%E5%A4%B4%E5%A6%93%E5%A5%B3</t>
+  </si>
+  <si>
+    <t>街头妓女</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Jackie_Goldberg</t>
+  </si>
+  <si>
+    <t>en-Jackie Goldberg</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9D%9C%E6%AF%94%E5%89%A7%E9%99%A2</t>
+  </si>
+  <si>
+    <t>杜比剧院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A3%95%E6%AB%9A%E6%A8%B9</t>
+  </si>
+  <si>
+    <t>棕榈树</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Barnsdall_Art_Park</t>
+  </si>
+  <si>
+    <t>en-Barnsdall Art Park</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Bob_Hope_Square</t>
+  </si>
+  <si>
+    <t>en-Bob Hope Square</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Broadway_Hollywood_Building</t>
+  </si>
+  <si>
+    <t>en-Broadway Hollywood Building</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Capitol_Records_Building</t>
+  </si>
+  <si>
+    <t>en-Capitol Records Building</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E6%88%8F%E9%99%A2</t>
+  </si>
+  <si>
+    <t>中国戏院</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Grauman%27s_Egyptian_Theatre</t>
+  </si>
+  <si>
+    <t>en-Grauman's Egyptian Theatre</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/El_Capitan_Theatre</t>
+  </si>
+  <si>
+    <t>en-El Capitan Theatre</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%BD%E8%90%8A%E5%A1%A2%E6%A8%99%E8%AA%8C</t>
+  </si>
+  <si>
+    <t>好莱坞标志</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Hollywood_Pacific_Theatre</t>
+  </si>
+  <si>
+    <t>en-Hollywood Pacific Theatre</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Hollywood_Roosevelt_Hotel</t>
+  </si>
+  <si>
+    <t>en-Hollywood Roosevelt Hotel</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E9%87%8C%E6%B4%BB%E6%98%9F%E5%85%89%E5%A4%A7%E9%81%93</t>
+  </si>
+  <si>
+    <t>荷里活星光大道</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E9%87%8C%E6%B4%BB%E8%A0%9F%E5%83%8F%E9%A4%A8</t>
+  </si>
+  <si>
+    <t>荷里活蜡像馆</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Hollywood_Masonic_Temple</t>
+  </si>
+  <si>
+    <t>en-Hollywood Masonic Temple</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%BD%E8%8E%B1%E5%9D%9E%E6%9D%9C%E8%8E%8E%E5%A4%AB%E4%BA%BA%E8%9C%A1%E5%83%8F%E9%A6%86</t>
+  </si>
+  <si>
+    <t>好莱坞杜莎夫人蜡像馆</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Ripley%27s_Believe_It_Or_Not!_Odditorium</t>
+  </si>
+  <si>
+    <t>en-Ripley's Believe It Or Not! Odditorium</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%BD%E8%8E%B1%E5%9D%9E%E5%A4%A7%E9%81%93</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E9%87%8C%E6%B4%BB%E9%81%93</t>
-  </si>
-  <si>
-    <t>荷里活道</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_好莱坞大道</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>美國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%8F%B2%E8%B9%9F%E5%90%8D%E9%8C%84</t>
-  </si>
-  <si>
-    <t>國家史蹟名錄</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%AD%B7%E5%8F%B2%E5%8D%80</t>
-  </si>
-  <si>
-    <t>美國歷史區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9F%AF%E8%BE%BE%E6%88%8F%E9%99%A2</t>
-  </si>
-  <si>
-    <t>柯达戏院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>美国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%9F%B6</t>
-  </si>
-  <si>
-    <t>洛杉矶</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E5%9D%90%E6%A0%87</t>
-  </si>
-  <si>
-    <t>地理坐标</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%96%87</t>
-  </si>
-  <si>
-    <t>英文</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%BD%E8%8E%B1%E5%9D%9E</t>
-  </si>
-  <si>
-    <t>好莱坞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E8%90%BD%E5%A4%A7%E9%81%93</t>
-  </si>
-  <si>
-    <t>日落大道</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Vermont_Avenue</t>
-  </si>
-  <si>
-    <t>en-Vermont Avenue</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%BD%E8%8E%B1%E5%9D%9E%E6%98%9F%E5%85%89%E5%A4%A7%E9%81%93</t>
-  </si>
-  <si>
-    <t>好莱坞星光大道</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E5%B0%8F%E9%BE%99</t>
-  </si>
-  <si>
-    <t>李小龙</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%88%90%E9%BE%99</t>
-  </si>
-  <si>
-    <t>成龙</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%A1%E6%9D%91%E9%9F%B3%E4%B9%90</t>
-  </si>
-  <si>
-    <t>乡村音乐</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%91%C2%B7%E5%A5%A7%E5%B4%94</t>
-  </si>
-  <si>
-    <t>金·奧崔</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Hollywood_Christmas_Parade</t>
-  </si>
-  <si>
-    <t>en-Hollywood Christmas Parade</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Oakley_Haldeman</t>
-  </si>
-  <si>
-    <t>en-Oakley Haldeman</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Here_Comes_Santa_Claus</t>
-  </si>
-  <si>
-    <t>en-Here Comes Santa Claus</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%A3%AF%E6%8D%B7%E9%81%8B</t>
-  </si>
-  <si>
-    <t>洛杉磯捷運</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A3%8E%E6%9C%88%E4%BF%8F%E4%BD%B3%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>风月俏佳人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E5%AF%9F%C2%B7%E5%9F%BA%E7%88%BE</t>
-  </si>
-  <si>
-    <t>李察·基爾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8C%B1%E8%8E%89%E4%BA%9E%C2%B7%E7%BE%85%E6%8B%94%E7%B5%B2</t>
-  </si>
-  <si>
-    <t>茱莉亞·羅拔絲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A1%97%E5%A4%B4%E5%A6%93%E5%A5%B3</t>
-  </si>
-  <si>
-    <t>街头妓女</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Jackie_Goldberg</t>
-  </si>
-  <si>
-    <t>en-Jackie Goldberg</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%9C%E6%AF%94%E5%89%A7%E9%99%A2</t>
-  </si>
-  <si>
-    <t>杜比剧院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A3%95%E6%AB%9A%E6%A8%B9</t>
-  </si>
-  <si>
-    <t>棕櫚樹</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Barnsdall_Art_Park</t>
-  </si>
-  <si>
-    <t>en-Barnsdall Art Park</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Bob_Hope_Square</t>
-  </si>
-  <si>
-    <t>en-Bob Hope Square</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Broadway_Hollywood_Building</t>
-  </si>
-  <si>
-    <t>en-Broadway Hollywood Building</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Capitol_Records_Building</t>
-  </si>
-  <si>
-    <t>en-Capitol Records Building</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E6%88%8F%E9%99%A2</t>
-  </si>
-  <si>
-    <t>中国戏院</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Grauman%27s_Egyptian_Theatre</t>
-  </si>
-  <si>
-    <t>en-Grauman's Egyptian Theatre</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/El_Capitan_Theatre</t>
-  </si>
-  <si>
-    <t>en-El Capitan Theatre</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%BD%E8%90%8A%E5%A1%A2%E6%A8%99%E8%AA%8C</t>
-  </si>
-  <si>
-    <t>好萊塢標誌</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Hollywood_Pacific_Theatre</t>
-  </si>
-  <si>
-    <t>en-Hollywood Pacific Theatre</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Hollywood_Roosevelt_Hotel</t>
-  </si>
-  <si>
-    <t>en-Hollywood Roosevelt Hotel</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E9%87%8C%E6%B4%BB%E6%98%9F%E5%85%89%E5%A4%A7%E9%81%93</t>
-  </si>
-  <si>
-    <t>荷里活星光大道</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E9%87%8C%E6%B4%BB%E8%A0%9F%E5%83%8F%E9%A4%A8</t>
-  </si>
-  <si>
-    <t>荷里活蠟像館</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Hollywood_Masonic_Temple</t>
-  </si>
-  <si>
-    <t>en-Hollywood Masonic Temple</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%BD%E8%8E%B1%E5%9D%9E%E6%9D%9C%E8%8E%8E%E5%A4%AB%E4%BA%BA%E8%9C%A1%E5%83%8F%E9%A6%86</t>
-  </si>
-  <si>
-    <t>好莱坞杜莎夫人蜡像馆</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Ripley%27s_Believe_It_Or_Not!_Odditorium</t>
-  </si>
-  <si>
-    <t>en-Ripley's Believe It Or Not! Odditorium</t>
+    <t>浏览条目正文[c]</t>
+  </si>
+  <si>
+    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -630,7 +636,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -826,7 +832,7 @@
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G7" t="n">
         <v>5</v>
@@ -852,10 +858,10 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
         <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>16</v>
       </c>
       <c r="G8" t="n">
         <v>4</v>
@@ -881,10 +887,10 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
         <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
       </c>
       <c r="G9" t="n">
         <v>3</v>
@@ -910,10 +916,10 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
         <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -939,10 +945,10 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
         <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
       </c>
       <c r="G11" t="n">
         <v>14</v>
@@ -968,10 +974,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
         <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -997,10 +1003,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
         <v>25</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -1026,10 +1032,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
         <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -1055,10 +1061,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -1084,10 +1090,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -1113,10 +1119,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1142,10 +1148,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1171,10 +1177,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>3</v>
@@ -1200,10 +1206,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>2</v>
@@ -1229,10 +1235,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1258,10 +1264,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1287,10 +1293,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1316,10 +1322,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1345,10 +1351,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1374,10 +1380,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1403,10 +1409,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>2</v>
@@ -1432,10 +1438,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>2</v>
@@ -1461,10 +1467,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1490,10 +1496,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1519,10 +1525,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1548,10 +1554,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1577,10 +1583,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1606,10 +1612,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1635,10 +1641,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -1664,10 +1670,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -1693,10 +1699,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -1722,10 +1728,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -1751,10 +1757,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -1780,10 +1786,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>2</v>
@@ -1809,10 +1815,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -1838,10 +1844,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -1867,10 +1873,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -1896,18 +1902,76 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="n">
+        <v>1</v>
+      </c>
+      <c r="H44" t="s">
+        <v>4</v>
+      </c>
+      <c r="I44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
         <v>88</v>
       </c>
-      <c r="G44" t="n">
-        <v>1</v>
-      </c>
-      <c r="H44" t="s">
-        <v>4</v>
-      </c>
-      <c r="I44" t="n">
+      <c r="F45" t="s">
+        <v>89</v>
+      </c>
+      <c r="G45" t="n">
+        <v>3</v>
+      </c>
+      <c r="H45" t="s">
+        <v>4</v>
+      </c>
+      <c r="I45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" t="s">
+        <v>90</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1</v>
+      </c>
+      <c r="H46" t="s">
+        <v>4</v>
+      </c>
+      <c r="I46" t="n">
         <v>3</v>
       </c>
     </row>
